--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/1.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/1.xlsx
@@ -479,13 +479,13 @@
         <v>-0.04877974875773852</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.501798018004359</v>
+        <v>-2.450283871236873</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06202918715815029</v>
+        <v>-0.01329132183552702</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1948326933311444</v>
+        <v>0.1728867104766957</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.05109115996680907</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.699898073002896</v>
+        <v>-2.655995886957363</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162247122445903</v>
+        <v>-0.0727897415881474</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2506736926160384</v>
+        <v>0.2296913415015896</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.05447119158889975</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.987971401531547</v>
+        <v>-2.948163920356966</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2109073708919285</v>
+        <v>-0.1478639543745818</v>
       </c>
       <c r="G4" t="n">
-        <v>0.266033398532398</v>
+        <v>0.2329545489847705</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.05661676077591374</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.201599798000943</v>
+        <v>-3.167536876040044</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.302611531433813</v>
+        <v>-0.2502556669419179</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2747601059717593</v>
+        <v>0.2475083083549484</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.05408587511350728</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.252973780151703</v>
+        <v>-3.24739493639634</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3585357534598889</v>
+        <v>-0.3193247019304448</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3074330621501141</v>
+        <v>0.2873997422947559</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.04438119793431767</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.033434378986262</v>
+        <v>-3.022114626137447</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4161769920408734</v>
+        <v>-0.3589635475505251</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3063584667552053</v>
+        <v>0.2776480810955767</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.02761854715347083</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.67112636532345</v>
+        <v>-2.636761213407732</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5262602379511165</v>
+        <v>-0.464909017171133</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2941641450999359</v>
+        <v>0.2739935807240322</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.006474369309326222</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.24399732659261</v>
+        <v>-2.221877598015343</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5315339316554788</v>
+        <v>-0.464365879281315</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2956898953549355</v>
+        <v>0.2820369856568482</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.01712144898101872</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.871480656678164</v>
+        <v>-1.827285000966358</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6025375303644597</v>
+        <v>-0.5141009574500289</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3105415045356588</v>
+        <v>0.2985311489398438</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.04270677408330899</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.366041938591436</v>
+        <v>-1.309508876511452</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7447608148998761</v>
+        <v>-0.6690879823961691</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3239695668277461</v>
+        <v>0.3218335164707467</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.0727384240749572</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8076684469447682</v>
+        <v>-0.7263423082330628</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9142461173887396</v>
+        <v>-0.8458706052433944</v>
       </c>
       <c r="G12" t="n">
-        <v>0.371881044930915</v>
+        <v>0.3793462708197312</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1098951842477796</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3014084518069042</v>
+        <v>-0.2285724927438328</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.211196538310114</v>
+        <v>-1.148656838384131</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4067090320914511</v>
+        <v>0.4194932131754477</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1571445761526086</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2948620480873902</v>
+        <v>0.3694617452442793</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.64261738840418</v>
+        <v>-1.591028049160012</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5036328645583342</v>
+        <v>0.5021771966116982</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.21464614508344</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9096167568125888</v>
+        <v>0.9764037366350254</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.039927134950346</v>
+        <v>-1.980575450030862</v>
       </c>
       <c r="G15" t="n">
-        <v>0.589063198453584</v>
+        <v>0.6086512036412151</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2803390155568786</v>
       </c>
       <c r="E16" t="n">
-        <v>1.401873430710548</v>
+        <v>1.477979897497254</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.423573021437743</v>
+        <v>-2.356888975005716</v>
       </c>
       <c r="G16" t="n">
-        <v>0.710134766296006</v>
+        <v>0.741863071359543</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3537397175668888</v>
       </c>
       <c r="E17" t="n">
-        <v>1.939546360524312</v>
+        <v>2.017102655065291</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.779514495400148</v>
+        <v>-2.717932587021801</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8230286047812484</v>
+        <v>0.857401056937421</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4349431653591606</v>
       </c>
       <c r="E18" t="n">
-        <v>2.34566311715484</v>
+        <v>2.437809672268269</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.122170261759329</v>
+        <v>-3.069001150480797</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9596613651765754</v>
+        <v>1.006702654617563</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.52511907559485</v>
       </c>
       <c r="E19" t="n">
-        <v>2.791694668494629</v>
+        <v>2.890633367326966</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.391625057032711</v>
+        <v>-3.343552973639542</v>
       </c>
       <c r="G19" t="n">
-        <v>1.139028273144709</v>
+        <v>1.185859315660605</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6213963697108266</v>
       </c>
       <c r="E20" t="n">
-        <v>3.100630624194273</v>
+        <v>3.188988354511795</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.66503585260841</v>
+        <v>-3.605983477547562</v>
       </c>
       <c r="G20" t="n">
-        <v>1.280268945314944</v>
+        <v>1.332985441685293</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7204084940565776</v>
       </c>
       <c r="E21" t="n">
-        <v>3.445569905767635</v>
+        <v>3.548934010363516</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.891858703675349</v>
+        <v>-3.805612202897282</v>
       </c>
       <c r="G21" t="n">
-        <v>1.399988508625184</v>
+        <v>1.447745221630717</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8163642250788476</v>
       </c>
       <c r="E22" t="n">
-        <v>3.766888529326276</v>
+        <v>3.872639812550793</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.061015495343758</v>
+        <v>-3.981888189056961</v>
       </c>
       <c r="G22" t="n">
-        <v>1.469545199676075</v>
+        <v>1.512330448932063</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9039078546494059</v>
       </c>
       <c r="E23" t="n">
-        <v>3.968997146358404</v>
+        <v>4.050102817808382</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.174031247844591</v>
+        <v>-4.1080399942317</v>
       </c>
       <c r="G23" t="n">
-        <v>1.548944074907781</v>
+        <v>1.59348138187286</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.9768163646975552</v>
       </c>
       <c r="E24" t="n">
-        <v>4.13101576291036</v>
+        <v>4.20936048342043</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.236032920049075</v>
+        <v>-4.144509075446417</v>
       </c>
       <c r="G24" t="n">
-        <v>1.601967181377221</v>
+        <v>1.644467721255482</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.029792829877061</v>
       </c>
       <c r="E25" t="n">
-        <v>4.226207978341425</v>
+        <v>4.278705467498138</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.268059804947202</v>
+        <v>-4.175218996966546</v>
       </c>
       <c r="G25" t="n">
-        <v>1.617544434459126</v>
+        <v>1.644482321736392</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.060328306850671</v>
       </c>
       <c r="E26" t="n">
-        <v>4.257343503880054</v>
+        <v>4.300706932180042</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.184285895611088</v>
+        <v>-4.09958777583343</v>
       </c>
       <c r="G26" t="n">
-        <v>1.573954698705047</v>
+        <v>1.590819714203133</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.068188084405371</v>
       </c>
       <c r="E27" t="n">
-        <v>4.218173333697155</v>
+        <v>4.246109893868602</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.112025195495836</v>
+        <v>-4.008586628447318</v>
       </c>
       <c r="G27" t="n">
-        <v>1.548434518124054</v>
+        <v>1.559630166885142</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.055558326506151</v>
       </c>
       <c r="E28" t="n">
-        <v>4.172056254697713</v>
+        <v>4.194463612748889</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.944830708461608</v>
+        <v>-3.83502925183291</v>
       </c>
       <c r="G28" t="n">
-        <v>1.463859772410076</v>
+        <v>1.472463835809801</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.025614654318947</v>
       </c>
       <c r="E29" t="n">
-        <v>4.012583962016301</v>
+        <v>4.010500473390574</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.773590428167472</v>
+        <v>-3.653076598695777</v>
       </c>
       <c r="G29" t="n">
-        <v>1.355782632576742</v>
+        <v>1.373059381636464</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9836113769297662</v>
       </c>
       <c r="E30" t="n">
-        <v>3.912045050476328</v>
+        <v>3.897156940093332</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.611600282553288</v>
+        <v>-3.503055197306817</v>
       </c>
       <c r="G30" t="n">
-        <v>1.265772127820311</v>
+        <v>1.281874998214943</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9334163986612908</v>
       </c>
       <c r="E31" t="n">
-        <v>3.752955290394735</v>
+        <v>3.73549895541983</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.459314346575329</v>
+        <v>-3.350528353393858</v>
       </c>
       <c r="G31" t="n">
-        <v>1.171060268211155</v>
+        <v>1.188712249630241</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.879515621398545</v>
       </c>
       <c r="E32" t="n">
-        <v>3.587617984532142</v>
+        <v>3.546359945579244</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.273898459366561</v>
+        <v>-3.18211180610754</v>
       </c>
       <c r="G32" t="n">
-        <v>1.049703990991006</v>
+        <v>1.062251644284275</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8235515204313403</v>
       </c>
       <c r="E33" t="n">
-        <v>3.406249350631373</v>
+        <v>3.376727178233199</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.132428559646053</v>
+        <v>-3.053399076581347</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9962647708156565</v>
+        <v>1.010113326957925</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7665827593939037</v>
       </c>
       <c r="E34" t="n">
-        <v>3.2052883313987</v>
+        <v>3.145845393473534</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.114651014091149</v>
+        <v>-3.030150000805762</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8963098785120469</v>
+        <v>0.9115527805811338</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7076221555545916</v>
       </c>
       <c r="E35" t="n">
-        <v>2.894055720052056</v>
+        <v>2.831486819164255</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.998449436655953</v>
+        <v>-2.928305076248471</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8471369188583329</v>
+        <v>0.8651495321558734</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6467763282823222</v>
       </c>
       <c r="E36" t="n">
-        <v>2.612450404566132</v>
+        <v>2.564864517187235</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.942324458017377</v>
+        <v>-2.875701733605168</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7763143661126246</v>
+        <v>0.7983085305540732</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5840976401887908</v>
       </c>
       <c r="E37" t="n">
-        <v>2.342945967657658</v>
+        <v>2.274719380417586</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.87704716792094</v>
+        <v>-2.824865779175908</v>
       </c>
       <c r="G37" t="n">
-        <v>0.726173394574638</v>
+        <v>0.7350388065826357</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5200337654236301</v>
       </c>
       <c r="E38" t="n">
-        <v>2.034081554314469</v>
+        <v>1.977025795017939</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.803180414905687</v>
+        <v>-2.756204097604745</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6511546636156582</v>
+        <v>0.6617750534289281</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4557707011946295</v>
       </c>
       <c r="E39" t="n">
-        <v>1.74315091167191</v>
+        <v>1.676816546757655</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.680483813538084</v>
+        <v>-2.63844610890464</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6255278995240288</v>
+        <v>0.6241583744147564</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.391749705846167</v>
       </c>
       <c r="E40" t="n">
-        <v>1.497167849507977</v>
+        <v>1.409319675974182</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.562738965270797</v>
+        <v>-2.525064614357035</v>
       </c>
       <c r="G40" t="n">
-        <v>0.552633538537321</v>
+        <v>0.5571465471863198</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3299733892018551</v>
       </c>
       <c r="E41" t="n">
-        <v>1.252398087307588</v>
+        <v>1.172749543852336</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.449450183776964</v>
+        <v>-2.419597310486199</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4880643717649747</v>
+        <v>0.4877110401269748</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2706541090112423</v>
       </c>
       <c r="E42" t="n">
-        <v>1.033366052853737</v>
+        <v>0.9508747957654868</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.328937084329314</v>
+        <v>-2.300899780839595</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4206597916000837</v>
+        <v>0.4203707020780838</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2147180207514626</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8289286591166105</v>
+        <v>0.7406614517807251</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.223814351807933</v>
+        <v>-2.206893124458347</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3622622481080085</v>
+        <v>0.3481786242231032</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1613382555968582</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6666238731388359</v>
+        <v>0.5744583374002242</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.161281952122405</v>
+        <v>-2.155081127880316</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2695798553452152</v>
+        <v>0.2552932847756736</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1106294451102625</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4879855291680656</v>
+        <v>0.396747123967181</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.054954679926024</v>
+        <v>-2.040495823681755</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2382662039394964</v>
+        <v>0.2177174871080473</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.0617680541775922</v>
       </c>
       <c r="E46" t="n">
-        <v>0.318612650382202</v>
+        <v>0.231955876090589</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.981982206366453</v>
+        <v>-1.965834074481003</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2138804807251393</v>
+        <v>0.2007181471855973</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.01446171564612319</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1387945875539776</v>
+        <v>0.02741627898709842</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.926232460087241</v>
+        <v>-1.918681821385106</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1431236301435219</v>
+        <v>0.1256614549762539</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.0319628974533934</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01777266134664646</v>
+        <v>-0.0823734972568721</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.869847592888483</v>
+        <v>-1.847138004882489</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1311891970484342</v>
+        <v>0.1059668662779864</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.07808690364965946</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.1121613984075914</v>
+        <v>-0.2152086725677455</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.796075742999139</v>
+        <v>-1.768815185093783</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07913702255944817</v>
+        <v>0.05854304423718096</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1236398828250506</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2201553154997442</v>
+        <v>-0.3240669381297163</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.771541094879509</v>
+        <v>-1.74180137531579</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04153640407427645</v>
+        <v>0.008974411550830641</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1682735390489297</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.3342434733233499</v>
+        <v>-0.4374294520521404</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.720046658761251</v>
+        <v>-1.694227168321621</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03940911400582247</v>
+        <v>0.005940431617922365</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2109973859807721</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3842720211583365</v>
+        <v>-0.4826252407062191</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.716564444064433</v>
+        <v>-1.701283580744983</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.0221173125450701</v>
+        <v>-0.05741105504660608</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2513468632236815</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4861585570862182</v>
+        <v>-0.6040282394652775</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.709678857267708</v>
+        <v>-1.696468342141166</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.02602148114015996</v>
+        <v>-0.06106701546624146</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2883725250242915</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5129431393139383</v>
+        <v>-0.5994860298544605</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.694027141733167</v>
+        <v>-1.676291937572899</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.05881270121387843</v>
+        <v>-0.09640893955477743</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3216167725098754</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6343037966783602</v>
+        <v>-0.7327139581017884</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.674839189722444</v>
+        <v>-1.668454399420901</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08558706310496215</v>
+        <v>-0.126288823735224</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3502196255200906</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.7167629327086108</v>
+        <v>-0.8104571387984039</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.632802945137092</v>
+        <v>-1.624815022031731</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1046275502585025</v>
+        <v>-0.1459425310869459</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3741511723629425</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.8503573330267568</v>
+        <v>-0.9371776327045517</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.676350339496535</v>
+        <v>-1.672197962725991</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1035704754406846</v>
+        <v>-0.1387751550086751</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3930718972168548</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.9175502062184661</v>
+        <v>-1.004950144988352</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.64316344639018</v>
+        <v>-1.633443906249001</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.148148663752309</v>
+        <v>-0.1884883324560254</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4073104363213748</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.037734064821616</v>
+        <v>-1.130636924846136</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.65018481765936</v>
+        <v>-1.643272949996998</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1727095927375751</v>
+        <v>-0.2144961690993821</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4169228525831384</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.07019677407488</v>
+        <v>-1.156482696151402</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.652972049464905</v>
+        <v>-1.651329495362633</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1871742891742076</v>
+        <v>-0.2344521064059222</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4226707582717326</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.151928806155858</v>
+        <v>-1.254053329922558</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.69242546897744</v>
+        <v>-1.683092841580351</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2413084922408294</v>
+        <v>-0.278767486061183</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4254153565104763</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.203021729049117</v>
+        <v>-1.313823318620087</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.691657483681622</v>
+        <v>-1.667968203406628</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2883176606238168</v>
+        <v>-0.3297304646743511</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4258337665032378</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.274692569735643</v>
+        <v>-1.400926867627518</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.743950566105608</v>
+        <v>-1.743417648552426</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3070179565721754</v>
+        <v>-0.349322850006255</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.424852542444637</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.345928316091078</v>
+        <v>-1.482377110426951</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.775581047947054</v>
+        <v>-1.760414068378694</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3563150203136167</v>
+        <v>-0.3936338495172431</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4230478672121746</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.369302225978436</v>
+        <v>-1.512115369942579</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.860706231791304</v>
+        <v>-1.828237682345676</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3556039768933442</v>
+        <v>-0.3947683068838791</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.421468531132941</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.395356784160701</v>
+        <v>-1.532115108691847</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.969688601441002</v>
+        <v>-1.936655743408238</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3859875776651542</v>
+        <v>-0.4274631637835976</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4197730022198554</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.436746227441781</v>
+        <v>-1.566618965176201</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.044512415979845</v>
+        <v>-2.001172348449312</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3579838552815254</v>
+        <v>-0.4049579825103309</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4185247165563343</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.464309015301956</v>
+        <v>-1.586534021136196</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.15693538895577</v>
+        <v>-2.118939097437962</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4248496777008711</v>
+        <v>-0.4768303098334025</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4171594259454308</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.461571425131502</v>
+        <v>-1.578384032692743</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.30822703218382</v>
+        <v>-2.26876631243083</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4412971194449575</v>
+        <v>-0.4899736627477627</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4159164089950543</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.480757917094133</v>
+        <v>-1.593905803947193</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.434794951064468</v>
+        <v>-2.394655308949206</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4552084576551356</v>
+        <v>-0.5041682502875771</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.414559449372146</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.522643776726122</v>
+        <v>-1.640006822417636</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.600434486881878</v>
+        <v>-2.561850526007479</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.516642901176301</v>
+        <v>-0.5739819098024673</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4130801552468883</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.530468174445301</v>
+        <v>-1.649005098801906</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.69442435271008</v>
+        <v>-2.652158880574455</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5336028198002964</v>
+        <v>-0.5859922653982823</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4113520587273157</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.517540908648396</v>
+        <v>-1.62193726724455</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.819347527416319</v>
+        <v>-2.777433926870603</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5358308531870231</v>
+        <v>-0.5884758072009181</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4087074348199156</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.571610869599018</v>
+        <v>-1.663478555527084</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.955249533742146</v>
+        <v>-2.907510341313704</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5436786116756573</v>
+        <v>-0.5926836657989168</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4047788920253633</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.453825870009231</v>
+        <v>-1.548219439134569</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.021409422909537</v>
+        <v>-2.970661071365733</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5816603027125562</v>
+        <v>-0.6344658620164512</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3985740627098291</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.341167099266625</v>
+        <v>-1.423100617984149</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.084113378245748</v>
+        <v>-3.018514147545265</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5728854136861949</v>
+        <v>-0.622922721809727</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3902607528921069</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.233276845588927</v>
+        <v>-1.307656075484088</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.163603506483136</v>
+        <v>-3.10461829363447</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5410461449677489</v>
+        <v>-0.5828809029165559</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3792601085836708</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.093420299008873</v>
+        <v>-1.144060606993951</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.218405681551348</v>
+        <v>-3.135873543116552</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5525878251263822</v>
+        <v>-0.6079557688298218</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3656648488122508</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8892165129662918</v>
+        <v>-0.9296861259500991</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.286983410357284</v>
+        <v>-3.203714677660625</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5535412365297456</v>
+        <v>-0.6087281342699126</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3489086611445787</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6747077074980767</v>
+        <v>-0.7108628783732488</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.32193988174982</v>
+        <v>-3.221891546368393</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5122612968554839</v>
+        <v>-0.5660392481879241</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3288243349480504</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4255169196784163</v>
+        <v>-0.4481155440295012</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.365985152508263</v>
+        <v>-3.257420356612565</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4766259031006753</v>
+        <v>-0.526125913526753</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3051442397803942</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.146565971621764</v>
+        <v>-0.1631112365879413</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.308330043470415</v>
+        <v>-3.209038013000078</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4412503979060485</v>
+        <v>-0.4859483101611274</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2780130260224649</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1344801454453424</v>
+        <v>0.1130057581242573</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.295614484646691</v>
+        <v>-3.178701133767177</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4225720026790535</v>
+        <v>-0.4555997505434992</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2474231807673125</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4641560842763448</v>
+        <v>0.4652905416429808</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.250511409046385</v>
+        <v>-3.133684201004235</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3744166965447028</v>
+        <v>-0.4167799919024187</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2132510547955854</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7370624332366351</v>
+        <v>0.7203507227880942</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.152345805678184</v>
+        <v>-3.019437627962765</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3340726476967136</v>
+        <v>-0.3772623302738838</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1759146578547123</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9984285620863831</v>
+        <v>1.0032116796322</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.059491857264709</v>
+        <v>-2.903098075982979</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2544795860689168</v>
+        <v>-0.2871379417663626</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1358647608948618</v>
       </c>
       <c r="E87" t="n">
-        <v>1.186939751247878</v>
+        <v>1.194572882667149</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.933986123370197</v>
+        <v>-2.764130698690288</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2216912860913801</v>
+        <v>-0.2550796658342803</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.09473650143726092</v>
       </c>
       <c r="E88" t="n">
-        <v>1.354956245357287</v>
+        <v>1.362332408312558</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.697205014299215</v>
+        <v>-2.535140406232395</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2204371047812896</v>
+        <v>-0.2553848158852802</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.05434811039544801</v>
       </c>
       <c r="E89" t="n">
-        <v>1.499322880490158</v>
+        <v>1.524917523523787</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.459744982865961</v>
+        <v>-2.291611684909279</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1494495666013086</v>
+        <v>-0.1795645185243915</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.01715462837539217</v>
       </c>
       <c r="E90" t="n">
-        <v>1.616973555655581</v>
+        <v>1.647181950656482</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.173387210844129</v>
+        <v>-2.00107306517913</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1502847141093084</v>
+        <v>-0.1753727204553926</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.01462779083637052</v>
       </c>
       <c r="E91" t="n">
-        <v>1.668424190331112</v>
+        <v>1.716046578912281</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.880385489984617</v>
+        <v>-1.71257413263198</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08770851298105249</v>
+        <v>-0.1186483920754987</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.03889713078901747</v>
       </c>
       <c r="E92" t="n">
-        <v>1.640129918377393</v>
+        <v>1.705929905690375</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.530485695022392</v>
+        <v>-1.369991368677345</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1008095245007762</v>
+        <v>-0.1318078055188588</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.05439777689948842</v>
       </c>
       <c r="E93" t="n">
-        <v>1.672161913443839</v>
+        <v>1.747001058487637</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.185276304552212</v>
+        <v>-1.026736982600891</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1280890630313144</v>
+        <v>-0.1586405693335789</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.06118877842626188</v>
       </c>
       <c r="E94" t="n">
-        <v>1.633149428454758</v>
+        <v>1.729223512932732</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9447698827772769</v>
+        <v>-0.8059587306303142</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.13086169435595</v>
+        <v>-0.1557306934883979</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.06052824567815228</v>
       </c>
       <c r="E95" t="n">
-        <v>1.628344410187578</v>
+        <v>1.734621310724822</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6535267898432642</v>
+        <v>-0.5372938213741136</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1934670964460241</v>
+        <v>-0.2134142734640187</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.0546392676484282</v>
       </c>
       <c r="E96" t="n">
-        <v>1.53925373572842</v>
+        <v>1.652902419076662</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3787764001441561</v>
+        <v>-0.2766445761370018</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2211218673359258</v>
+        <v>-0.2385709020703756</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.04582406167668353</v>
       </c>
       <c r="E97" t="n">
-        <v>1.41948745087927</v>
+        <v>1.533525967067785</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1864617857058442</v>
+        <v>-0.1171182616762264</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.3233865557193528</v>
+        <v>-0.3285989274038969</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.03481533681702391</v>
       </c>
       <c r="E98" t="n">
-        <v>1.3401148565132</v>
+        <v>1.43812642480781</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.02244582336552456</v>
+        <v>0.03256440855564249</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3214388515660807</v>
+        <v>-0.3158541676183549</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.02329487837255037</v>
       </c>
       <c r="E99" t="n">
-        <v>1.196473865281512</v>
+        <v>1.291971230763577</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08829298413753661</v>
+        <v>0.12634621753089</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3360159717057131</v>
+        <v>-0.3341237493798954</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.009778130135363782</v>
       </c>
       <c r="E100" t="n">
-        <v>1.03417345944801</v>
+        <v>1.133610034679347</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1734123277894228</v>
+        <v>0.1896217816946912</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3717053872398853</v>
+        <v>-0.3638839096168874</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.005092934328339767</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8807224050935056</v>
+        <v>0.9777338404458432</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2224947644615006</v>
+        <v>0.2346336042893155</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3298662491468056</v>
+        <v>-0.3123734129696285</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.02768265562772432</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7730701392546254</v>
+        <v>0.8616731576514198</v>
       </c>
       <c r="F102" t="n">
-        <v>0.242989459513586</v>
+        <v>0.2551983816497645</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3493491308718913</v>
+        <v>-0.3382031237458943</v>
       </c>
     </row>
   </sheetData>
